--- a/data/trans_orig/P33B4_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33B4_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A1E9599-81CC-4367-9E42-DF6FF0265752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8EFBEAE-FC48-45DC-A4F4-9019841EA277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5FF8C5B8-1911-4A7C-95BF-9AD5A7090EB8}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8AF135CE-4EFE-463A-9011-7A945C77E7B6}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="158">
   <si>
     <t>Población que se siente cansado cuando despierta por la mañana en 2023 (Tasa respuesta: 99,89%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>14,78%</t>
   </si>
   <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
   </si>
   <si>
     <t>21,53%</t>
   </si>
   <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
   </si>
   <si>
     <t>18,87%</t>
   </si>
   <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
   </si>
   <si>
     <t>A menudo (alguna vez a la semana)</t>
@@ -104,28 +104,28 @@
     <t>10,26%</t>
   </si>
   <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
   </si>
   <si>
     <t>14,55%</t>
   </si>
   <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
   </si>
   <si>
     <t>12,86%</t>
   </si>
   <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
   </si>
   <si>
     <t>Ocasionalmente (alguna vez al mes)</t>
@@ -134,28 +134,28 @@
     <t>13,42%</t>
   </si>
   <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
   </si>
   <si>
     <t>21,94%</t>
   </si>
   <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
   </si>
   <si>
     <t>18,58%</t>
   </si>
   <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -164,28 +164,28 @@
     <t>61,54%</t>
   </si>
   <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
   </si>
   <si>
     <t>41,99%</t>
   </si>
   <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
   </si>
   <si>
     <t>49,7%</t>
   </si>
   <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
   </si>
   <si>
     <t>100%</t>
@@ -197,64 +197,64 @@
     <t>6,23%</t>
   </si>
   <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
   </si>
   <si>
     <t>9,15%</t>
   </si>
   <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
   </si>
   <si>
     <t>7,72%</t>
   </si>
   <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
   </si>
   <si>
     <t>5,88%</t>
   </si>
   <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
   </si>
   <si>
     <t>9,1%</t>
   </si>
   <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
   </si>
   <si>
     <t>7,52%</t>
   </si>
   <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
   </si>
   <si>
     <t>15,92%</t>
   </si>
   <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
   </si>
   <si>
     <t>19,87%</t>
@@ -263,34 +263,34 @@
     <t>16,64%</t>
   </si>
   <si>
-    <t>21,68%</t>
+    <t>21,64%</t>
   </si>
   <si>
     <t>17,94%</t>
   </si>
   <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
   </si>
   <si>
     <t>71,97%</t>
   </si>
   <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
   </si>
   <si>
     <t>61,88%</t>
   </si>
   <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
   </si>
   <si>
     <t>66,83%</t>
@@ -299,7 +299,7 @@
     <t>64,97%</t>
   </si>
   <si>
-    <t>69,86%</t>
+    <t>69,65%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -308,208 +308,205 @@
     <t>5,32%</t>
   </si>
   <si>
-    <t>3,65%</t>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
   </si>
   <si>
     <t>7,98%</t>
   </si>
   <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
   </si>
   <si>
     <t>6,69%</t>
   </si>
   <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
   </si>
   <si>
     <t>6,15%</t>
   </si>
   <si>
-    <t>4,45%</t>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
   </si>
   <si>
     <t>8,41%</t>
   </si>
   <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>58,3%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>61,6%</t>
-  </si>
-  <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
     <t>11,64%</t>
   </si>
   <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
   </si>
   <si>
     <t>9,65%</t>
   </si>
   <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
   </si>
   <si>
     <t>6,64%</t>
   </si>
   <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
+    <t>7,76%</t>
   </si>
   <si>
     <t>10,33%</t>
   </si>
   <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
   </si>
   <si>
     <t>16,65%</t>
   </si>
   <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
   </si>
   <si>
     <t>18,73%</t>
   </si>
   <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
   </si>
   <si>
     <t>69,3%</t>
   </si>
   <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
   </si>
   <si>
     <t>57,44%</t>
   </si>
   <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>61,76%</t>
   </si>
   <si>
     <t>63,02%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -924,7 +921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE81F8B5-8E1B-4798-AAED-60964A189C39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC0FDE7C-D7EA-4A35-AD7B-149094E62B5F}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1470,7 +1467,7 @@
         <v>1618</v>
       </c>
       <c r="I12" s="7">
-        <v>1392104</v>
+        <v>1392105</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>82</v>
@@ -1521,7 +1518,7 @@
         <v>2921</v>
       </c>
       <c r="I13" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -1568,7 +1565,7 @@
         <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>74</v>
@@ -1577,13 +1574,13 @@
         <v>56989</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>106</v>
@@ -1592,13 +1589,13 @@
         <v>92710</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1613,13 +1610,13 @@
         <v>41350</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>91</v>
@@ -1628,10 +1625,10 @@
         <v>66270</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>102</v>
@@ -1873,10 +1870,10 @@
         <v>133</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>590</v>
@@ -1885,13 +1882,13 @@
         <v>392024</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>837</v>
@@ -1900,13 +1897,13 @@
         <v>615974</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1921,13 +1918,13 @@
         <v>561602</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>1310</v>
@@ -1936,13 +1933,13 @@
         <v>781422</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M21" s="7">
         <v>1951</v>
@@ -1951,13 +1948,13 @@
         <v>1343024</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1972,13 +1969,13 @@
         <v>2337807</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H22" s="7">
         <v>2794</v>
@@ -1987,13 +1984,13 @@
         <v>2180158</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M22" s="7">
         <v>4996</v>
@@ -2002,13 +1999,13 @@
         <v>4517964</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>43</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2064,7 +2061,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33B4_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33B4_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8EFBEAE-FC48-45DC-A4F4-9019841EA277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DD797A1-B3E1-4C3D-9A1E-2FA126D7C635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8AF135CE-4EFE-463A-9011-7A945C77E7B6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BA82D101-3195-4A74-9FDE-7B636F523688}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -921,7 +921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC0FDE7C-D7EA-4A35-AD7B-149094E62B5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9452C246-84A2-4230-BA8B-6B2531A99912}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P33B4_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33B4_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DD797A1-B3E1-4C3D-9A1E-2FA126D7C635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E25E2C8D-BD88-411B-A443-F32675AF0F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BA82D101-3195-4A74-9FDE-7B636F523688}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{957FD355-86DC-41CC-9CCC-345FDCA102D7}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="159">
   <si>
     <t>Población que se siente cansado cuando despierta por la mañana en 2023 (Tasa respuesta: 99,89%)</t>
   </si>
@@ -74,439 +74,442 @@
     <t>14,78%</t>
   </si>
   <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
   </si>
   <si>
     <t>21,53%</t>
   </si>
   <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
   </si>
   <si>
     <t>18,87%</t>
   </si>
   <si>
-    <t>17,19%</t>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>A menudo (alguna vez a la semana)</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>Ocasionalmente (alguna vez al mes)</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>58,3%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
   </si>
   <si>
     <t>20,59%</t>
   </si>
   <si>
-    <t>A menudo (alguna vez a la semana)</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>Ocasionalmente (alguna vez al mes)</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>61,54%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
   </si>
   <si>
     <t>18,73%</t>
   </si>
   <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
   </si>
   <si>
     <t>69,3%</t>
   </si>
   <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
   </si>
   <si>
     <t>57,44%</t>
   </si>
   <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
   </si>
   <si>
     <t>63,02%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -921,7 +924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9452C246-84A2-4230-BA8B-6B2531A99912}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{818C9B3B-EBA1-40B9-9226-E91E6614B0D9}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1467,7 +1470,7 @@
         <v>1618</v>
       </c>
       <c r="I12" s="7">
-        <v>1392105</v>
+        <v>1392104</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>82</v>
@@ -1518,7 +1521,7 @@
         <v>2921</v>
       </c>
       <c r="I13" s="7">
-        <v>2249521</v>
+        <v>2249520</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -1565,7 +1568,7 @@
         <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="H14" s="7">
         <v>74</v>
@@ -1574,13 +1577,13 @@
         <v>56989</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>106</v>
@@ -1589,13 +1592,13 @@
         <v>92710</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1610,13 +1613,13 @@
         <v>41350</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>91</v>
@@ -1625,10 +1628,10 @@
         <v>66270</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>102</v>
@@ -1870,10 +1873,10 @@
         <v>133</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>590</v>
@@ -1882,13 +1885,13 @@
         <v>392024</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>837</v>
@@ -1897,13 +1900,13 @@
         <v>615974</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1918,13 +1921,13 @@
         <v>561602</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>1310</v>
@@ -1933,13 +1936,13 @@
         <v>781422</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M21" s="7">
         <v>1951</v>
@@ -1948,13 +1951,13 @@
         <v>1343024</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1969,13 +1972,13 @@
         <v>2337807</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>2794</v>
@@ -1984,13 +1987,13 @@
         <v>2180158</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>4996</v>
@@ -1999,13 +2002,13 @@
         <v>4517964</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2061,7 +2064,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33B4_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33B4_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E25E2C8D-BD88-411B-A443-F32675AF0F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B424336-7EC8-46ED-8A7C-D4F033524871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{957FD355-86DC-41CC-9CCC-345FDCA102D7}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{494D18D2-FEB9-4082-8F0A-8323F095161F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="160">
   <si>
     <t>Población que se siente cansado cuando despierta por la mañana en 2023 (Tasa respuesta: 99,89%)</t>
   </si>
@@ -71,121 +71,121 @@
     <t>Diariamente o casi diariamente</t>
   </si>
   <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
   </si>
   <si>
     <t>A menudo (alguna vez a la semana)</t>
   </si>
   <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
   </si>
   <si>
     <t>Ocasionalmente (alguna vez al mes)</t>
   </si>
   <si>
-    <t>13,42%</t>
+    <t>13,44%</t>
   </si>
   <si>
     <t>11,08%</t>
   </si>
   <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>61,54%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
   </si>
   <si>
     <t>100%</t>
@@ -194,322 +194,325 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
   </si>
   <si>
     <t>14,08%</t>
   </si>
   <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
   </si>
   <si>
     <t>21,43%</t>
   </si>
   <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>58,3%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>61,6%</t>
-  </si>
-  <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -924,7 +927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{818C9B3B-EBA1-40B9-9226-E91E6614B0D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7302803-814D-4100-ABC3-9D763CF1FBFD}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1045,7 +1048,7 @@
         <v>97</v>
       </c>
       <c r="D4" s="7">
-        <v>80069</v>
+        <v>72688</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1060,7 +1063,7 @@
         <v>295</v>
       </c>
       <c r="I4" s="7">
-        <v>179114</v>
+        <v>156523</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1075,7 +1078,7 @@
         <v>392</v>
       </c>
       <c r="N4" s="7">
-        <v>259183</v>
+        <v>229212</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1096,7 +1099,7 @@
         <v>75</v>
       </c>
       <c r="D5" s="7">
-        <v>55563</v>
+        <v>51334</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1111,7 +1114,7 @@
         <v>204</v>
       </c>
       <c r="I5" s="7">
-        <v>121049</v>
+        <v>107527</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1126,7 +1129,7 @@
         <v>279</v>
       </c>
       <c r="N5" s="7">
-        <v>176612</v>
+        <v>158861</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1147,7 +1150,7 @@
         <v>99</v>
       </c>
       <c r="D6" s="7">
-        <v>72673</v>
+        <v>69197</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1162,7 +1165,7 @@
         <v>336</v>
       </c>
       <c r="I6" s="7">
-        <v>182542</v>
+        <v>167294</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1177,7 +1180,7 @@
         <v>435</v>
       </c>
       <c r="N6" s="7">
-        <v>255215</v>
+        <v>236491</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1198,7 +1201,7 @@
         <v>420</v>
       </c>
       <c r="D7" s="7">
-        <v>333329</v>
+        <v>321718</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1213,7 +1216,7 @@
         <v>589</v>
       </c>
       <c r="I7" s="7">
-        <v>349335</v>
+        <v>320771</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1228,7 +1231,7 @@
         <v>1009</v>
       </c>
       <c r="N7" s="7">
-        <v>682663</v>
+        <v>642489</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1249,7 +1252,7 @@
         <v>691</v>
       </c>
       <c r="D8" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -1264,7 +1267,7 @@
         <v>1424</v>
       </c>
       <c r="I8" s="7">
-        <v>832040</v>
+        <v>752115</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -1279,7 +1282,7 @@
         <v>2115</v>
       </c>
       <c r="N8" s="7">
-        <v>1373674</v>
+        <v>1267053</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -1302,7 +1305,7 @@
         <v>142</v>
       </c>
       <c r="D9" s="7">
-        <v>134460</v>
+        <v>123479</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>52</v>
@@ -1317,7 +1320,7 @@
         <v>286</v>
       </c>
       <c r="I9" s="7">
-        <v>205741</v>
+        <v>184973</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>55</v>
@@ -1332,7 +1335,7 @@
         <v>428</v>
       </c>
       <c r="N9" s="7">
-        <v>340200</v>
+        <v>308452</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>58</v>
@@ -1353,7 +1356,7 @@
         <v>133</v>
       </c>
       <c r="D10" s="7">
-        <v>127037</v>
+        <v>122061</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>61</v>
@@ -1368,7 +1371,7 @@
         <v>295</v>
       </c>
       <c r="I10" s="7">
-        <v>204705</v>
+        <v>188962</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>64</v>
@@ -1383,7 +1386,7 @@
         <v>428</v>
       </c>
       <c r="N10" s="7">
-        <v>331742</v>
+        <v>311023</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>67</v>
@@ -1404,7 +1407,7 @@
         <v>380</v>
       </c>
       <c r="D11" s="7">
-        <v>343867</v>
+        <v>322162</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>70</v>
@@ -1419,7 +1422,7 @@
         <v>722</v>
       </c>
       <c r="I11" s="7">
-        <v>446971</v>
+        <v>407754</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>73</v>
@@ -1434,7 +1437,7 @@
         <v>1102</v>
       </c>
       <c r="N11" s="7">
-        <v>790838</v>
+        <v>729916</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>76</v>
@@ -1455,7 +1458,7 @@
         <v>1335</v>
       </c>
       <c r="D12" s="7">
-        <v>1554543</v>
+        <v>1720580</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>79</v>
@@ -1470,7 +1473,7 @@
         <v>1618</v>
       </c>
       <c r="I12" s="7">
-        <v>1392104</v>
+        <v>1456134</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>82</v>
@@ -1485,7 +1488,7 @@
         <v>2953</v>
       </c>
       <c r="N12" s="7">
-        <v>2946648</v>
+        <v>3176714</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>85</v>
@@ -1506,7 +1509,7 @@
         <v>1990</v>
       </c>
       <c r="D13" s="7">
-        <v>2159907</v>
+        <v>2288281</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -1521,7 +1524,7 @@
         <v>2921</v>
       </c>
       <c r="I13" s="7">
-        <v>2249520</v>
+        <v>2237823</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -1536,7 +1539,7 @@
         <v>4911</v>
       </c>
       <c r="N13" s="7">
-        <v>4409428</v>
+        <v>4526105</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -1559,7 +1562,7 @@
         <v>32</v>
       </c>
       <c r="D14" s="7">
-        <v>35721</v>
+        <v>33817</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>89</v>
@@ -1568,16 +1571,16 @@
         <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>74</v>
       </c>
       <c r="I14" s="7">
-        <v>56989</v>
+        <v>52995</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>92</v>
@@ -1589,7 +1592,7 @@
         <v>106</v>
       </c>
       <c r="N14" s="7">
-        <v>92710</v>
+        <v>86812</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>94</v>
@@ -1610,7 +1613,7 @@
         <v>39</v>
       </c>
       <c r="D15" s="7">
-        <v>41350</v>
+        <v>39267</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>97</v>
@@ -1625,7 +1628,7 @@
         <v>91</v>
       </c>
       <c r="I15" s="7">
-        <v>66270</v>
+        <v>60199</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>100</v>
@@ -1640,7 +1643,7 @@
         <v>130</v>
       </c>
       <c r="N15" s="7">
-        <v>107620</v>
+        <v>99466</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>103</v>
@@ -1661,7 +1664,7 @@
         <v>162</v>
       </c>
       <c r="D16" s="7">
-        <v>145063</v>
+        <v>142966</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>106</v>
@@ -1676,7 +1679,7 @@
         <v>252</v>
       </c>
       <c r="I16" s="7">
-        <v>151909</v>
+        <v>140331</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>109</v>
@@ -1691,7 +1694,7 @@
         <v>414</v>
       </c>
       <c r="N16" s="7">
-        <v>296971</v>
+        <v>283297</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>112</v>
@@ -1712,7 +1715,7 @@
         <v>447</v>
       </c>
       <c r="D17" s="7">
-        <v>449934</v>
+        <v>429604</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>115</v>
@@ -1727,7 +1730,7 @@
         <v>587</v>
       </c>
       <c r="I17" s="7">
-        <v>438718</v>
+        <v>406938</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>118</v>
@@ -1742,7 +1745,7 @@
         <v>1034</v>
       </c>
       <c r="N17" s="7">
-        <v>888652</v>
+        <v>836542</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>121</v>
@@ -1763,7 +1766,7 @@
         <v>680</v>
       </c>
       <c r="D18" s="7">
-        <v>672067</v>
+        <v>645654</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -1778,7 +1781,7 @@
         <v>1004</v>
       </c>
       <c r="I18" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -1793,7 +1796,7 @@
         <v>1684</v>
       </c>
       <c r="N18" s="7">
-        <v>1385953</v>
+        <v>1306117</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -1816,7 +1819,7 @@
         <v>271</v>
       </c>
       <c r="D19" s="7">
-        <v>250249</v>
+        <v>229984</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>124</v>
@@ -1831,7 +1834,7 @@
         <v>655</v>
       </c>
       <c r="I19" s="7">
-        <v>441844</v>
+        <v>394491</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>127</v>
@@ -1846,7 +1849,7 @@
         <v>926</v>
       </c>
       <c r="N19" s="7">
-        <v>692094</v>
+        <v>624475</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>130</v>
@@ -1867,7 +1870,7 @@
         <v>247</v>
       </c>
       <c r="D20" s="7">
-        <v>223950</v>
+        <v>212662</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>133</v>
@@ -1882,7 +1885,7 @@
         <v>590</v>
       </c>
       <c r="I20" s="7">
-        <v>392024</v>
+        <v>356688</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>136</v>
@@ -1897,16 +1900,16 @@
         <v>837</v>
       </c>
       <c r="N20" s="7">
-        <v>615974</v>
+        <v>569350</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1918,46 +1921,46 @@
         <v>641</v>
       </c>
       <c r="D21" s="7">
-        <v>561602</v>
+        <v>534324</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>1310</v>
       </c>
       <c r="I21" s="7">
-        <v>781422</v>
+        <v>715379</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M21" s="7">
         <v>1951</v>
       </c>
       <c r="N21" s="7">
-        <v>1343024</v>
+        <v>1249704</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1969,46 +1972,46 @@
         <v>2202</v>
       </c>
       <c r="D22" s="7">
-        <v>2337807</v>
+        <v>2471903</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>2794</v>
       </c>
       <c r="I22" s="7">
-        <v>2180158</v>
+        <v>2183843</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>4996</v>
       </c>
       <c r="N22" s="7">
-        <v>4517964</v>
+        <v>4655746</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P22" s="7" t="s">
-        <v>122</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>43</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2020,7 +2023,7 @@
         <v>3361</v>
       </c>
       <c r="D23" s="7">
-        <v>3373608</v>
+        <v>3448874</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -2035,7 +2038,7 @@
         <v>5349</v>
       </c>
       <c r="I23" s="7">
-        <v>3795448</v>
+        <v>3650401</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -2050,7 +2053,7 @@
         <v>8710</v>
       </c>
       <c r="N23" s="7">
-        <v>7169055</v>
+        <v>7099275</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -2064,7 +2067,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33B4_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33B4_2023-Estudios-trans_orig.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se siente cansado cuando despierta por la mañana en 2023</t>
+          <t>Población según la frecuencia con la que se siente cansado cuando despierta por la mañana en 2023</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
